--- a/BaoCaoLuong2018/BaoCaoLuong2018/Resources/Productivity.xlsx
+++ b/BaoCaoLuong2018/BaoCaoLuong2018/Resources/Productivity.xlsx
@@ -4,18 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
-    <sheet name="DeSo" sheetId="1" r:id="rId1"/>
-    <sheet name="DeJP" sheetId="2" r:id="rId2"/>
+    <sheet name="Loại 1 CityN" sheetId="4" r:id="rId1"/>
+    <sheet name="Loại 3 CityN" sheetId="3" r:id="rId2"/>
+    <sheet name="Loại JP CityN" sheetId="1" r:id="rId3"/>
+    <sheet name="Loại 1 CityO" sheetId="5" r:id="rId4"/>
+    <sheet name="Loại 3 CityO" sheetId="6" r:id="rId5"/>
+    <sheet name="Loại JP CityO" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="14">
   <si>
     <t>STT</t>
   </si>
@@ -41,18 +45,33 @@
     <t>Thời gian (h)</t>
   </si>
   <si>
-    <t>BÁO CÁO HIỆU SUẤT DỰ ÁN BÁO CÁO LƯƠNG 2018</t>
+    <t>BÁO CÁO HIỆU SUẤT DỰ ÁN BÁO CÁO LƯƠNG 2018 LOẠI 1 - CityN</t>
+  </si>
+  <si>
+    <t>BÁO CÁO HIỆU SUẤT DỰ ÁN BÁO CÁO LƯƠNG 2018 LOẠI 3 - CityN</t>
+  </si>
+  <si>
+    <t>BÁO CÁO HIỆU SUẤT DỰ ÁN BÁO CÁO LƯƠNG 2018 DEJP - CityN</t>
+  </si>
+  <si>
+    <t>BÁO CÁO HIỆU SUẤT DỰ ÁN BÁO CÁO LƯƠNG 2018 DEJP - CityO</t>
+  </si>
+  <si>
+    <t>BÁO CÁO HIỆU SUẤT DỰ ÁN BÁO CÁO LƯƠNG 2018 LOẠI 3 - CityO</t>
+  </si>
+  <si>
+    <t>BÁO CÁO HIỆU SUẤT DỰ ÁN BÁO CÁO LƯƠNG 2018 LOẠI 1 - CityO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -60,7 +79,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -68,17 +87,9 @@
       <b/>
       <sz val="20"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="3">
@@ -177,8 +188,8 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -193,7 +204,133 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="66">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -264,7 +401,7 @@
     <dxf>
       <border outline="0">
         <top style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </top>
       </border>
     </dxf>
@@ -274,7 +411,49 @@
     <dxf>
       <border outline="0">
         <bottom style="thin">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
@@ -289,7 +468,75 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A2:H253" totalsRowShown="0" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table43" displayName="Table43" ref="A2:H253" totalsRowShown="0" dataDxfId="64" headerRowBorderDxfId="65" tableBorderDxfId="63">
+  <autoFilter ref="A2:H253"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="STT" dataDxfId="62"/>
+    <tableColumn id="9" name="UserName" dataDxfId="61"/>
+    <tableColumn id="2" name="Nhân viên" dataDxfId="60"/>
+    <tableColumn id="3" name="Tổng phiếu nhập" dataDxfId="59"/>
+    <tableColumn id="4" name="Số phiếu đúng" dataDxfId="58"/>
+    <tableColumn id="5" name="Số phiếu sai" dataDxfId="57"/>
+    <tableColumn id="10" name="Thời gian (h)" dataDxfId="56"/>
+    <tableColumn id="8" name="Hiệu suất (%)" dataDxfId="55"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table42" displayName="Table42" ref="A2:H253" totalsRowShown="0" dataDxfId="53" headerRowBorderDxfId="54" tableBorderDxfId="52">
+  <autoFilter ref="A2:H253"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="STT" dataDxfId="51"/>
+    <tableColumn id="9" name="UserName" dataDxfId="50"/>
+    <tableColumn id="2" name="Nhân viên" dataDxfId="49"/>
+    <tableColumn id="3" name="Tổng phiếu nhập" dataDxfId="48"/>
+    <tableColumn id="4" name="Số phiếu đúng" dataDxfId="47"/>
+    <tableColumn id="5" name="Số phiếu sai" dataDxfId="46"/>
+    <tableColumn id="10" name="Thời gian (h)" dataDxfId="45"/>
+    <tableColumn id="8" name="Hiệu suất (%)" dataDxfId="44"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A2:H253" totalsRowShown="0" dataDxfId="42" headerRowBorderDxfId="43" tableBorderDxfId="41">
+  <autoFilter ref="A2:H253"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="STT" dataDxfId="40"/>
+    <tableColumn id="9" name="UserName" dataDxfId="39"/>
+    <tableColumn id="2" name="Nhân viên" dataDxfId="38"/>
+    <tableColumn id="3" name="Tổng phiếu nhập" dataDxfId="37"/>
+    <tableColumn id="4" name="Số phiếu đúng" dataDxfId="36"/>
+    <tableColumn id="5" name="Số phiếu sai" dataDxfId="35"/>
+    <tableColumn id="10" name="Thời gian (h)" dataDxfId="34"/>
+    <tableColumn id="8" name="Hiệu suất (%)" dataDxfId="33"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table434" displayName="Table434" ref="A2:H253" totalsRowShown="0" dataDxfId="32" headerRowBorderDxfId="30" tableBorderDxfId="31">
+  <autoFilter ref="A2:H253"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="STT" dataDxfId="29"/>
+    <tableColumn id="9" name="UserName" dataDxfId="28"/>
+    <tableColumn id="2" name="Nhân viên" dataDxfId="27"/>
+    <tableColumn id="3" name="Tổng phiếu nhập" dataDxfId="26"/>
+    <tableColumn id="4" name="Số phiếu đúng" dataDxfId="25"/>
+    <tableColumn id="5" name="Số phiếu sai" dataDxfId="24"/>
+    <tableColumn id="10" name="Thời gian (h)" dataDxfId="23"/>
+    <tableColumn id="8" name="Hiệu suất (%)" dataDxfId="22"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table426" displayName="Table426" ref="A2:H253" totalsRowShown="0" dataDxfId="21" headerRowBorderDxfId="19" tableBorderDxfId="20">
   <autoFilter ref="A2:H253"/>
   <tableColumns count="8">
     <tableColumn id="1" name="STT" dataDxfId="18"/>
@@ -305,8 +552,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table42" displayName="Table42" ref="A2:H253" totalsRowShown="0" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8">
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table47" displayName="Table47" ref="A2:H253" totalsRowShown="0" dataDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9">
   <autoFilter ref="A2:H253"/>
   <tableColumns count="8">
     <tableColumn id="1" name="STT" dataDxfId="7"/>
@@ -612,23 +859,21 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="18.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.25" style="2" customWidth="1"/>
-    <col min="6" max="7" width="14.25" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="4.875" customWidth="1"/>
-    <col min="10" max="10" width="46.125" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" style="4" customWidth="1"/>
+    <col min="4" max="7" width="21.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="4.85546875" customWidth="1"/>
+    <col min="10" max="10" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>8</v>
       </c>
@@ -640,7 +885,7 @@
       <c r="G1" s="9"/>
       <c r="H1" s="10"/>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -665,16 +910,14 @@
       <c r="H2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="7">
-        <v>123</v>
-      </c>
+      <c r="J2" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="dataBar" priority="11">
+    <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -682,13 +925,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{746718E7-8417-4F81-BA19-67FC27B0AE0A}</x14:id>
+          <x14:id>{9885D2C4-DD6F-43CE-A6DE-0A3C47A98E0A}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="dataBar" priority="10">
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -696,7 +939,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0610939A-8DBA-40C3-BBE9-75E06F4C36AD}</x14:id>
+          <x14:id>{D403D960-707A-4858-9C3F-967230BD0B50}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -710,13 +953,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B5A1128C-B8E9-4391-AE8C-A34703FC183F}</x14:id>
+          <x14:id>{40389A41-6906-42C5-BE84-DD85FF55E44B}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="dataBar" priority="7">
+    <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -724,7 +967,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E2DF5A76-8D94-40CD-B2DC-D07D0823D2B7}</x14:id>
+          <x14:id>{0E8ECDB1-0D91-4BF3-AF08-9AA603714926}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -738,7 +981,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{746718E7-8417-4F81-BA19-67FC27B0AE0A}">
+          <x14:cfRule type="dataBar" id="{9885D2C4-DD6F-43CE-A6DE-0A3C47A98E0A}">
             <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -747,7 +990,7 @@
           <xm:sqref>D1:D1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0610939A-8DBA-40C3-BBE9-75E06F4C36AD}">
+          <x14:cfRule type="dataBar" id="{D403D960-707A-4858-9C3F-967230BD0B50}">
             <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -756,7 +999,7 @@
           <xm:sqref>E1:E1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B5A1128C-B8E9-4391-AE8C-A34703FC183F}">
+          <x14:cfRule type="dataBar" id="{40389A41-6906-42C5-BE84-DD85FF55E44B}">
             <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -765,7 +1008,7 @@
           <xm:sqref>F1:G1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E2DF5A76-8D94-40CD-B2DC-D07D0823D2B7}">
+          <x14:cfRule type="dataBar" id="{0E8ECDB1-0D91-4BF3-AF08-9AA603714926}">
             <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -784,25 +1027,23 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="18.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.25" style="2" customWidth="1"/>
-    <col min="6" max="7" width="14.25" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="4.875" customWidth="1"/>
-    <col min="10" max="10" width="46.125" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" style="4" customWidth="1"/>
+    <col min="4" max="7" width="21.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="4.85546875" customWidth="1"/>
+    <col min="10" max="10" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -812,7 +1053,7 @@
       <c r="G1" s="9"/>
       <c r="H1" s="10"/>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -837,9 +1078,7 @@
       <c r="H2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="7">
-        <v>123</v>
-      </c>
+      <c r="J2" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -854,7 +1093,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{EB3CE9F7-FBD7-476C-8D88-4E86E92DC563}</x14:id>
+          <x14:id>{69BD1B90-1A4B-48F0-A9F4-8DBC8FB5185E}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -868,7 +1107,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{38A91410-04B3-4045-94C5-598C4CBB47CE}</x14:id>
+          <x14:id>{81AB953C-2527-46F4-B286-9A80542B19C5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -882,7 +1121,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4C7CCEB0-A3E0-444D-842B-C9EC9AFB5F32}</x14:id>
+          <x14:id>{55400C23-211A-4171-BD25-0119B9B8FD1A}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -896,20 +1135,21 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A356676A-1697-494A-9B38-4CC34145960F}</x14:id>
+          <x14:id>{51C3E9B5-D1DF-4871-90C6-73402509D356}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{EB3CE9F7-FBD7-476C-8D88-4E86E92DC563}">
+          <x14:cfRule type="dataBar" id="{69BD1B90-1A4B-48F0-A9F4-8DBC8FB5185E}">
             <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -918,7 +1158,7 @@
           <xm:sqref>D1:D1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{38A91410-04B3-4045-94C5-598C4CBB47CE}">
+          <x14:cfRule type="dataBar" id="{81AB953C-2527-46F4-B286-9A80542B19C5}">
             <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -927,7 +1167,7 @@
           <xm:sqref>E1:E1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4C7CCEB0-A3E0-444D-842B-C9EC9AFB5F32}">
+          <x14:cfRule type="dataBar" id="{55400C23-211A-4171-BD25-0119B9B8FD1A}">
             <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
@@ -936,7 +1176,679 @@
           <xm:sqref>F1:G1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A356676A-1697-494A-9B38-4CC34145960F}">
+          <x14:cfRule type="dataBar" id="{51C3E9B5-D1DF-4871-90C6-73402509D356}">
+            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H1:H1048576</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" style="4" customWidth="1"/>
+    <col min="4" max="7" width="21.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="4.85546875" customWidth="1"/>
+    <col min="10" max="10" width="27.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="10"/>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="dataBar" priority="11">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{746718E7-8417-4F81-BA19-67FC27B0AE0A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="dataBar" priority="10">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0610939A-8DBA-40C3-BBE9-75E06F4C36AD}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:G1048576">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B5A1128C-B8E9-4391-AE8C-A34703FC183F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E2DF5A76-8D94-40CD-B2DC-D07D0823D2B7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{746718E7-8417-4F81-BA19-67FC27B0AE0A}">
+            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D1:D1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0610939A-8DBA-40C3-BBE9-75E06F4C36AD}">
+            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E1:E1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B5A1128C-B8E9-4391-AE8C-A34703FC183F}">
+            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F1:G1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E2DF5A76-8D94-40CD-B2DC-D07D0823D2B7}">
+            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H1:H1048576</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" style="4" customWidth="1"/>
+    <col min="4" max="7" width="21.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="4.85546875" customWidth="1"/>
+    <col min="10" max="10" width="27.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="10"/>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F2D31C86-82BE-4637-9F87-B78D6C202EA8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F50DCD9D-1B5D-4B9B-A138-F5CFD8D9A421}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:G1048576">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{63B88E81-DD9F-4962-84DF-ACF9F18E67D5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{593B1475-B6ED-41F6-ACF3-3533C8F6F0A6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F2D31C86-82BE-4637-9F87-B78D6C202EA8}">
+            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D1:D1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F50DCD9D-1B5D-4B9B-A138-F5CFD8D9A421}">
+            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E1:E1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{63B88E81-DD9F-4962-84DF-ACF9F18E67D5}">
+            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F1:G1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{593B1475-B6ED-41F6-ACF3-3533C8F6F0A6}">
+            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H1:H1048576</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" style="4" customWidth="1"/>
+    <col min="4" max="7" width="21.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="4.85546875" customWidth="1"/>
+    <col min="10" max="10" width="27.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="10"/>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BB8C00FF-A023-4B4A-9D42-FA9C169E58D2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8336BA70-F74F-4873-8687-B8516984FA73}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:G1048576">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B518C0D5-2BDA-4138-87FB-4AB5CC732FE4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D7D26F4C-CB48-4BB6-8E9F-289F11397E25}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{BB8C00FF-A023-4B4A-9D42-FA9C169E58D2}">
+            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D1:D1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8336BA70-F74F-4873-8687-B8516984FA73}">
+            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E1:E1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B518C0D5-2BDA-4138-87FB-4AB5CC732FE4}">
+            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F1:G1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D7D26F4C-CB48-4BB6-8E9F-289F11397E25}">
+            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H1:H1048576</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" style="4" customWidth="1"/>
+    <col min="4" max="7" width="21.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="4.85546875" customWidth="1"/>
+    <col min="10" max="10" width="27.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="10"/>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{65C79C99-BA51-44CB-940F-2FEEF49F2074}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF00B050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2AC5B746-D22D-477A-828F-38BBCD0CFC55}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:G1048576">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4D0585F5-6DCA-4921-A38A-5A8B1E539A70}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="9" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{201663B0-256E-41A9-BE0B-BC045BC5E220}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{65C79C99-BA51-44CB-940F-2FEEF49F2074}">
+            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D1:D1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2AC5B746-D22D-477A-828F-38BBCD0CFC55}">
+            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E1:E1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4D0585F5-6DCA-4921-A38A-5A8B1E539A70}">
+            <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
+              <x14:cfvo type="min"/>
+              <x14:cfvo type="max"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F1:G1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{201663B0-256E-41A9-BE0B-BC045BC5E220}">
             <x14:dataBar minLength="0" maxLength="100" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="min"/>
               <x14:cfvo type="max"/>
